--- a/Selenium/Bugs/data/genre/리메이크.xlsx
+++ b/Selenium/Bugs/data/genre/리메이크.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="729">
   <si>
     <t>Title</t>
   </si>
@@ -361,154 +361,157 @@
     <t>보라빛향기</t>
   </si>
   <si>
+    <t xml:space="preserve">보라빛 향기 </t>
+  </si>
+  <si>
+    <t>혜화동 (혹은 쌍문동)</t>
+  </si>
+  <si>
+    <t>혜화동</t>
+  </si>
+  <si>
+    <t>청춘 (Rock Ver.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">청춘 (산울림) </t>
+  </si>
+  <si>
+    <t>네게 줄 수 있는건 오직 사랑뿐</t>
+  </si>
+  <si>
+    <t>매일 그대와 (Special Guest 최성원 Of 들국화)</t>
+  </si>
+  <si>
+    <t>기억날 그날이 와도</t>
+  </si>
+  <si>
+    <t>세가지 소원 (Wish Tree)</t>
+  </si>
+  <si>
+    <t>밤이 깊었네 (Drama Ver.)</t>
+  </si>
+  <si>
+    <t>내 얘길 들어봐 (A-ing) (feat. 스컬 &amp; 하하)</t>
+  </si>
+  <si>
+    <t>시간속의 향기</t>
+  </si>
+  <si>
+    <t>Lonely Night</t>
+  </si>
+  <si>
+    <t>좋은 사람 있으면 소개시켜줘</t>
+  </si>
+  <si>
+    <t>끝사랑</t>
+  </si>
+  <si>
+    <t>그랬나봐</t>
+  </si>
+  <si>
+    <t>나 그대에게 모두 드리리</t>
+  </si>
+  <si>
+    <t>너 하나만을 위해</t>
+  </si>
+  <si>
+    <t>무시로</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나 항상 그대를 </t>
+  </si>
+  <si>
+    <t>독설.. 이 지독한 사랑..</t>
+  </si>
+  <si>
+    <t>내 마음의 보석상자</t>
+  </si>
+  <si>
+    <t>아로하</t>
+  </si>
+  <si>
+    <t>Just A Feeling</t>
+  </si>
+  <si>
+    <t>오아시스</t>
+  </si>
+  <si>
+    <t>기대</t>
+  </si>
+  <si>
+    <t>애수</t>
+  </si>
+  <si>
+    <t>처음 본 순간</t>
+  </si>
+  <si>
+    <t>눈을 보고 말해요</t>
+  </si>
+  <si>
+    <t>조개껍질 묶어</t>
+  </si>
+  <si>
+    <t>가질 수 없는 너</t>
+  </si>
+  <si>
+    <t>고백</t>
+  </si>
+  <si>
+    <t>토요일 밤에</t>
+  </si>
+  <si>
+    <t>It's Raining</t>
+  </si>
+  <si>
+    <t>I Dream</t>
+  </si>
+  <si>
+    <t>장마</t>
+  </si>
+  <si>
+    <t>눈물이 주룩주룩</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>시간아 천천히</t>
+  </si>
+  <si>
+    <t>안아줘</t>
+  </si>
+  <si>
+    <t>좋아 (JOAH)</t>
+  </si>
+  <si>
+    <t>Jenga</t>
+  </si>
+  <si>
+    <t>그래, 우리 함께</t>
+  </si>
+  <si>
+    <t>나였으면</t>
+  </si>
+  <si>
+    <t>Je T'aime</t>
+  </si>
+  <si>
+    <t>이런 엔딩</t>
+  </si>
+  <si>
+    <t>그대 우나봐</t>
+  </si>
+  <si>
+    <t>그대 내 맘에 들어오면은</t>
+  </si>
+  <si>
+    <t>편지</t>
+  </si>
+  <si>
+    <t>사랑합니다…</t>
+  </si>
+  <si>
     <t>보라빛 향기</t>
-  </si>
-  <si>
-    <t>혜화동 (혹은 쌍문동)</t>
-  </si>
-  <si>
-    <t>혜화동</t>
-  </si>
-  <si>
-    <t>청춘 (Rock Ver.)</t>
-  </si>
-  <si>
-    <t>청춘 (산울림)</t>
-  </si>
-  <si>
-    <t>네게 줄 수 있는건 오직 사랑뿐</t>
-  </si>
-  <si>
-    <t>매일 그대와 (Special Guest 최성원 Of 들국화)</t>
-  </si>
-  <si>
-    <t>기억날 그날이 와도</t>
-  </si>
-  <si>
-    <t>세가지 소원 (Wish Tree)</t>
-  </si>
-  <si>
-    <t>밤이 깊었네 (Drama Ver.)</t>
-  </si>
-  <si>
-    <t>내 얘길 들어봐 (A-ing) (feat. 스컬 &amp; 하하)</t>
-  </si>
-  <si>
-    <t>시간속의 향기</t>
-  </si>
-  <si>
-    <t>Lonely Night</t>
-  </si>
-  <si>
-    <t>좋은 사람 있으면 소개시켜줘</t>
-  </si>
-  <si>
-    <t>끝사랑</t>
-  </si>
-  <si>
-    <t>그랬나봐</t>
-  </si>
-  <si>
-    <t>나 그대에게 모두 드리리</t>
-  </si>
-  <si>
-    <t>너 하나만을 위해</t>
-  </si>
-  <si>
-    <t>무시로</t>
-  </si>
-  <si>
-    <t>나 항상 그대를</t>
-  </si>
-  <si>
-    <t>독설.. 이 지독한 사랑..</t>
-  </si>
-  <si>
-    <t>내 마음의 보석상자</t>
-  </si>
-  <si>
-    <t>아로하</t>
-  </si>
-  <si>
-    <t>Just A Feeling</t>
-  </si>
-  <si>
-    <t>오아시스</t>
-  </si>
-  <si>
-    <t>기대</t>
-  </si>
-  <si>
-    <t>애수</t>
-  </si>
-  <si>
-    <t>처음 본 순간</t>
-  </si>
-  <si>
-    <t>눈을 보고 말해요</t>
-  </si>
-  <si>
-    <t>조개껍질 묶어</t>
-  </si>
-  <si>
-    <t>가질 수 없는 너</t>
-  </si>
-  <si>
-    <t>고백</t>
-  </si>
-  <si>
-    <t>토요일 밤에</t>
-  </si>
-  <si>
-    <t>It's Raining</t>
-  </si>
-  <si>
-    <t>I Dream</t>
-  </si>
-  <si>
-    <t>장마</t>
-  </si>
-  <si>
-    <t>눈물이 주룩주룩</t>
-  </si>
-  <si>
-    <t>Stay</t>
-  </si>
-  <si>
-    <t>시간아 천천히</t>
-  </si>
-  <si>
-    <t>안아줘</t>
-  </si>
-  <si>
-    <t>좋아 (JOAH)</t>
-  </si>
-  <si>
-    <t>Jenga</t>
-  </si>
-  <si>
-    <t>그래, 우리 함께</t>
-  </si>
-  <si>
-    <t>나였으면</t>
-  </si>
-  <si>
-    <t>Je T'aime</t>
-  </si>
-  <si>
-    <t>이런 엔딩</t>
-  </si>
-  <si>
-    <t>그대 우나봐</t>
-  </si>
-  <si>
-    <t>그대 내 맘에 들어오면은</t>
-  </si>
-  <si>
-    <t>편지</t>
-  </si>
-  <si>
-    <t>사랑합니다…</t>
   </si>
   <si>
     <t>희재</t>
@@ -2593,10 +2596,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2607,10 +2610,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2621,10 +2624,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2635,10 +2638,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2649,10 +2652,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2663,10 +2666,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2677,10 +2680,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2691,10 +2694,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2705,10 +2708,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2719,10 +2722,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2733,10 +2736,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2747,10 +2750,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2761,10 +2764,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2775,10 +2778,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2789,10 +2792,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2803,10 +2806,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2817,10 +2820,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2831,10 +2834,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2845,10 +2848,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2859,10 +2862,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2873,10 +2876,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2887,10 +2890,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2901,10 +2904,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2915,10 +2918,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2929,10 +2932,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2943,10 +2946,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2957,10 +2960,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2971,10 +2974,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2985,10 +2988,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2999,10 +3002,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3013,10 +3016,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3027,10 +3030,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3041,10 +3044,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3055,10 +3058,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3069,10 +3072,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3083,10 +3086,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3097,10 +3100,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3111,10 +3114,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3125,10 +3128,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3139,10 +3142,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3153,10 +3156,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3167,10 +3170,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3181,10 +3184,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3195,10 +3198,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3209,10 +3212,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3223,10 +3226,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3237,10 +3240,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3251,10 +3254,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3265,10 +3268,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3279,10 +3282,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3293,10 +3296,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3307,10 +3310,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3321,10 +3324,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3335,10 +3338,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3349,10 +3352,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3363,10 +3366,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3377,10 +3380,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3391,10 +3394,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3405,10 +3408,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3419,10 +3422,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3433,10 +3436,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3447,10 +3450,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3461,10 +3464,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3475,10 +3478,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3489,10 +3492,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3503,10 +3506,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3517,10 +3520,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3531,10 +3534,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3545,10 +3548,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3559,10 +3562,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3573,10 +3576,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3587,10 +3590,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3601,10 +3604,10 @@
         <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3615,10 +3618,10 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3629,10 +3632,10 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3643,10 +3646,10 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3657,10 +3660,10 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3671,10 +3674,10 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3685,10 +3688,10 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3699,10 +3702,10 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3713,10 +3716,10 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3727,10 +3730,10 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3741,10 +3744,10 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3755,10 +3758,10 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3769,10 +3772,10 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3783,10 +3786,10 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3797,10 +3800,10 @@
         <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3811,10 +3814,10 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3825,10 +3828,10 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3839,10 +3842,10 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3853,10 +3856,10 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3867,10 +3870,10 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3881,10 +3884,10 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3895,10 +3898,10 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3909,10 +3912,10 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3923,10 +3926,10 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3937,10 +3940,10 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3951,10 +3954,10 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3965,10 +3968,10 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3979,10 +3982,10 @@
         <v>53</v>
       </c>
       <c r="C101" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3993,10 +3996,10 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4007,10 +4010,10 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4021,10 +4024,10 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4035,10 +4038,10 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4049,10 +4052,10 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4063,10 +4066,10 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4077,10 +4080,10 @@
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4091,10 +4094,10 @@
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4105,10 +4108,10 @@
         <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4119,10 +4122,10 @@
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4133,10 +4136,10 @@
         <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4147,10 +4150,10 @@
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4161,10 +4164,10 @@
         <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4175,10 +4178,10 @@
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4189,10 +4192,10 @@
         <v>73</v>
       </c>
       <c r="C116" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4203,10 +4206,10 @@
         <v>114</v>
       </c>
       <c r="C117" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4217,10 +4220,10 @@
         <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4231,10 +4234,10 @@
         <v>50</v>
       </c>
       <c r="C119" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4245,10 +4248,10 @@
         <v>116</v>
       </c>
       <c r="C120" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4259,10 +4262,10 @@
         <v>117</v>
       </c>
       <c r="C121" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4273,10 +4276,10 @@
         <v>118</v>
       </c>
       <c r="C122" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4287,10 +4290,10 @@
         <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4301,10 +4304,10 @@
         <v>120</v>
       </c>
       <c r="C124" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4315,10 +4318,10 @@
         <v>120</v>
       </c>
       <c r="C125" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4329,10 +4332,10 @@
         <v>80</v>
       </c>
       <c r="C126" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4343,10 +4346,10 @@
         <v>121</v>
       </c>
       <c r="C127" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4357,10 +4360,10 @@
         <v>58</v>
       </c>
       <c r="C128" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4371,10 +4374,10 @@
         <v>122</v>
       </c>
       <c r="C129" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4385,10 +4388,10 @@
         <v>122</v>
       </c>
       <c r="C130" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4399,10 +4402,10 @@
         <v>123</v>
       </c>
       <c r="C131" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4413,10 +4416,10 @@
         <v>124</v>
       </c>
       <c r="C132" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4427,10 +4430,10 @@
         <v>125</v>
       </c>
       <c r="C133" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4441,10 +4444,10 @@
         <v>126</v>
       </c>
       <c r="C134" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4455,10 +4458,10 @@
         <v>44</v>
       </c>
       <c r="C135" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4469,10 +4472,10 @@
         <v>127</v>
       </c>
       <c r="C136" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4483,10 +4486,10 @@
         <v>71</v>
       </c>
       <c r="C137" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4497,10 +4500,10 @@
         <v>128</v>
       </c>
       <c r="C138" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4511,10 +4514,10 @@
         <v>108</v>
       </c>
       <c r="C139" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4525,10 +4528,10 @@
         <v>129</v>
       </c>
       <c r="C140" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4539,10 +4542,10 @@
         <v>130</v>
       </c>
       <c r="C141" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4553,10 +4556,10 @@
         <v>131</v>
       </c>
       <c r="C142" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4567,10 +4570,10 @@
         <v>132</v>
       </c>
       <c r="C143" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4581,10 +4584,10 @@
         <v>133</v>
       </c>
       <c r="C144" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4595,10 +4598,10 @@
         <v>134</v>
       </c>
       <c r="C145" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4609,10 +4612,10 @@
         <v>135</v>
       </c>
       <c r="C146" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4623,10 +4626,10 @@
         <v>136</v>
       </c>
       <c r="C147" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4637,10 +4640,10 @@
         <v>137</v>
       </c>
       <c r="C148" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4651,10 +4654,10 @@
         <v>138</v>
       </c>
       <c r="C149" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4665,10 +4668,10 @@
         <v>139</v>
       </c>
       <c r="C150" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4679,10 +4682,10 @@
         <v>140</v>
       </c>
       <c r="C151" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4693,10 +4696,10 @@
         <v>141</v>
       </c>
       <c r="C152" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4707,10 +4710,10 @@
         <v>142</v>
       </c>
       <c r="C153" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4721,10 +4724,10 @@
         <v>143</v>
       </c>
       <c r="C154" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4735,10 +4738,10 @@
         <v>144</v>
       </c>
       <c r="C155" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4749,10 +4752,10 @@
         <v>145</v>
       </c>
       <c r="C156" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4763,10 +4766,10 @@
         <v>146</v>
       </c>
       <c r="C157" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4777,10 +4780,10 @@
         <v>147</v>
       </c>
       <c r="C158" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4791,10 +4794,10 @@
         <v>148</v>
       </c>
       <c r="C159" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4805,10 +4808,10 @@
         <v>149</v>
       </c>
       <c r="C160" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4819,10 +4822,10 @@
         <v>150</v>
       </c>
       <c r="C161" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4833,10 +4836,10 @@
         <v>151</v>
       </c>
       <c r="C162" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4847,10 +4850,10 @@
         <v>152</v>
       </c>
       <c r="C163" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4861,10 +4864,10 @@
         <v>153</v>
       </c>
       <c r="C164" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4875,10 +4878,10 @@
         <v>154</v>
       </c>
       <c r="C165" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4889,10 +4892,10 @@
         <v>155</v>
       </c>
       <c r="C166" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4903,10 +4906,10 @@
         <v>156</v>
       </c>
       <c r="C167" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4917,10 +4920,10 @@
         <v>157</v>
       </c>
       <c r="C168" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4931,10 +4934,10 @@
         <v>158</v>
       </c>
       <c r="C169" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4945,10 +4948,10 @@
         <v>159</v>
       </c>
       <c r="C170" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4959,10 +4962,10 @@
         <v>160</v>
       </c>
       <c r="C171" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4973,10 +4976,10 @@
         <v>161</v>
       </c>
       <c r="C172" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4987,10 +4990,10 @@
         <v>162</v>
       </c>
       <c r="C173" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5001,10 +5004,10 @@
         <v>163</v>
       </c>
       <c r="C174" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5015,10 +5018,10 @@
         <v>164</v>
       </c>
       <c r="C175" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5026,13 +5029,13 @@
         <v>188</v>
       </c>
       <c r="B176" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="C176" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5040,13 +5043,13 @@
         <v>189</v>
       </c>
       <c r="B177" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C177" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5054,13 +5057,13 @@
         <v>190</v>
       </c>
       <c r="B178" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C178" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5068,13 +5071,13 @@
         <v>191</v>
       </c>
       <c r="B179" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C179" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5082,13 +5085,13 @@
         <v>192</v>
       </c>
       <c r="B180" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C180" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5099,10 +5102,10 @@
         <v>137</v>
       </c>
       <c r="C181" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5110,13 +5113,13 @@
         <v>194</v>
       </c>
       <c r="B182" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C182" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5124,13 +5127,13 @@
         <v>196</v>
       </c>
       <c r="B183" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C183" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5138,13 +5141,13 @@
         <v>197</v>
       </c>
       <c r="B184" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C184" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5152,13 +5155,13 @@
         <v>199</v>
       </c>
       <c r="B185" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C185" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5166,13 +5169,13 @@
         <v>200</v>
       </c>
       <c r="B186" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C186" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5180,13 +5183,13 @@
         <v>201</v>
       </c>
       <c r="B187" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C187" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5194,13 +5197,13 @@
         <v>203</v>
       </c>
       <c r="B188" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C188" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5208,13 +5211,13 @@
         <v>204</v>
       </c>
       <c r="B189" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C189" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5222,13 +5225,13 @@
         <v>205</v>
       </c>
       <c r="B190" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C190" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5236,13 +5239,13 @@
         <v>206</v>
       </c>
       <c r="B191" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C191" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5250,13 +5253,13 @@
         <v>207</v>
       </c>
       <c r="B192" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C192" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5264,13 +5267,13 @@
         <v>209</v>
       </c>
       <c r="B193" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C193" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5278,13 +5281,13 @@
         <v>210</v>
       </c>
       <c r="B194" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C194" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5292,13 +5295,13 @@
         <v>212</v>
       </c>
       <c r="B195" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C195" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5306,13 +5309,13 @@
         <v>213</v>
       </c>
       <c r="B196" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C196" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5320,13 +5323,13 @@
         <v>214</v>
       </c>
       <c r="B197" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C197" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5334,13 +5337,13 @@
         <v>216</v>
       </c>
       <c r="B198" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C198" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5351,10 +5354,10 @@
         <v>90</v>
       </c>
       <c r="C199" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5362,13 +5365,13 @@
         <v>219</v>
       </c>
       <c r="B200" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C200" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5376,13 +5379,13 @@
         <v>220</v>
       </c>
       <c r="B201" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C201" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5390,13 +5393,13 @@
         <v>221</v>
       </c>
       <c r="B202" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C202" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5404,13 +5407,13 @@
         <v>222</v>
       </c>
       <c r="B203" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C203" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5418,13 +5421,13 @@
         <v>223</v>
       </c>
       <c r="B204" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C204" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5432,13 +5435,13 @@
         <v>224</v>
       </c>
       <c r="B205" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C205" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5446,13 +5449,13 @@
         <v>225</v>
       </c>
       <c r="B206" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C206" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5460,13 +5463,13 @@
         <v>226</v>
       </c>
       <c r="B207" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C207" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5474,13 +5477,13 @@
         <v>227</v>
       </c>
       <c r="B208" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C208" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5488,13 +5491,13 @@
         <v>228</v>
       </c>
       <c r="B209" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C209" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5502,13 +5505,13 @@
         <v>229</v>
       </c>
       <c r="B210" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C210" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5516,13 +5519,13 @@
         <v>230</v>
       </c>
       <c r="B211" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C211" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5530,13 +5533,13 @@
         <v>231</v>
       </c>
       <c r="B212" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C212" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5544,13 +5547,13 @@
         <v>232</v>
       </c>
       <c r="B213" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5558,13 +5561,13 @@
         <v>233</v>
       </c>
       <c r="B214" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C214" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5572,13 +5575,13 @@
         <v>234</v>
       </c>
       <c r="B215" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C215" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5586,13 +5589,13 @@
         <v>235</v>
       </c>
       <c r="B216" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C216" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5600,13 +5603,13 @@
         <v>236</v>
       </c>
       <c r="B217" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C217" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5614,13 +5617,13 @@
         <v>237</v>
       </c>
       <c r="B218" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C218" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5628,13 +5631,13 @@
         <v>238</v>
       </c>
       <c r="B219" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C219" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5642,13 +5645,13 @@
         <v>240</v>
       </c>
       <c r="B220" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5656,13 +5659,13 @@
         <v>241</v>
       </c>
       <c r="B221" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C221" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5670,13 +5673,13 @@
         <v>242</v>
       </c>
       <c r="B222" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C222" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5687,10 +5690,10 @@
         <v>93</v>
       </c>
       <c r="C223" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5698,13 +5701,13 @@
         <v>244</v>
       </c>
       <c r="B224" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C224" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5712,13 +5715,13 @@
         <v>245</v>
       </c>
       <c r="B225" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C225" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5726,13 +5729,13 @@
         <v>246</v>
       </c>
       <c r="B226" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C226" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5740,13 +5743,13 @@
         <v>248</v>
       </c>
       <c r="B227" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C227" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5757,10 +5760,10 @@
         <v>71</v>
       </c>
       <c r="C228" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5768,13 +5771,13 @@
         <v>250</v>
       </c>
       <c r="B229" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C229" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5782,13 +5785,13 @@
         <v>251</v>
       </c>
       <c r="B230" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C230" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5796,13 +5799,13 @@
         <v>252</v>
       </c>
       <c r="B231" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C231" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5810,13 +5813,13 @@
         <v>253</v>
       </c>
       <c r="B232" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C232" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5824,13 +5827,13 @@
         <v>254</v>
       </c>
       <c r="B233" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C233" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5838,13 +5841,13 @@
         <v>255</v>
       </c>
       <c r="B234" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C234" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5852,13 +5855,13 @@
         <v>256</v>
       </c>
       <c r="B235" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C235" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5866,13 +5869,13 @@
         <v>257</v>
       </c>
       <c r="B236" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C236" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5880,13 +5883,13 @@
         <v>258</v>
       </c>
       <c r="B237" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C237" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5894,13 +5897,13 @@
         <v>259</v>
       </c>
       <c r="B238" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C238" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5908,13 +5911,13 @@
         <v>260</v>
       </c>
       <c r="B239" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C239" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5922,13 +5925,13 @@
         <v>261</v>
       </c>
       <c r="B240" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C240" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5936,13 +5939,13 @@
         <v>262</v>
       </c>
       <c r="B241" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C241" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5950,13 +5953,13 @@
         <v>263</v>
       </c>
       <c r="B242" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C242" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5964,13 +5967,13 @@
         <v>265</v>
       </c>
       <c r="B243" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C243" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5978,13 +5981,13 @@
         <v>267</v>
       </c>
       <c r="B244" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C244" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5992,13 +5995,13 @@
         <v>268</v>
       </c>
       <c r="B245" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C245" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6006,13 +6009,13 @@
         <v>269</v>
       </c>
       <c r="B246" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C246" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6020,13 +6023,13 @@
         <v>270</v>
       </c>
       <c r="B247" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C247" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6034,13 +6037,13 @@
         <v>271</v>
       </c>
       <c r="B248" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C248" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6048,13 +6051,13 @@
         <v>272</v>
       </c>
       <c r="B249" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C249" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6062,13 +6065,13 @@
         <v>273</v>
       </c>
       <c r="B250" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C250" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6076,13 +6079,13 @@
         <v>274</v>
       </c>
       <c r="B251" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C251" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6090,13 +6093,13 @@
         <v>275</v>
       </c>
       <c r="B252" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C252" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6104,13 +6107,13 @@
         <v>276</v>
       </c>
       <c r="B253" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C253" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6118,13 +6121,13 @@
         <v>277</v>
       </c>
       <c r="B254" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C254" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6132,13 +6135,13 @@
         <v>278</v>
       </c>
       <c r="B255" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C255" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6146,13 +6149,13 @@
         <v>279</v>
       </c>
       <c r="B256" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C256" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6160,13 +6163,13 @@
         <v>280</v>
       </c>
       <c r="B257" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C257" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6174,13 +6177,13 @@
         <v>281</v>
       </c>
       <c r="B258" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C258" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6188,13 +6191,13 @@
         <v>282</v>
       </c>
       <c r="B259" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C259" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6202,13 +6205,13 @@
         <v>283</v>
       </c>
       <c r="B260" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C260" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6216,13 +6219,13 @@
         <v>284</v>
       </c>
       <c r="B261" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C261" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6230,13 +6233,13 @@
         <v>285</v>
       </c>
       <c r="B262" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C262" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6244,13 +6247,13 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C263" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6258,13 +6261,13 @@
         <v>287</v>
       </c>
       <c r="B264" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C264" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6272,13 +6275,13 @@
         <v>288</v>
       </c>
       <c r="B265" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C265" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6289,10 +6292,10 @@
         <v>27</v>
       </c>
       <c r="C266" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6300,13 +6303,13 @@
         <v>290</v>
       </c>
       <c r="B267" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C267" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6314,13 +6317,13 @@
         <v>291</v>
       </c>
       <c r="B268" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C268" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6328,13 +6331,13 @@
         <v>292</v>
       </c>
       <c r="B269" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C269" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6342,13 +6345,13 @@
         <v>293</v>
       </c>
       <c r="B270" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C270" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
